--- a/library/OfficialBusinessExport.xlsx
+++ b/library/OfficialBusinessExport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\fas\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F99213-D93A-4139-9BC6-08F16CD2D536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23D19F0-9B99-4651-BF9B-D7E50C72C1F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23295" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23205" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>No.</t>
   </si>
@@ -75,9 +75,6 @@
     <t>CAO/FAD-Chief</t>
   </si>
   <si>
-    <t>Sign</t>
-  </si>
-  <si>
     <t>Out</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Email: dilgcalabarzon@yahoo.com   •  Website: www.calabarzon.dilg.gov.ph</t>
+  </si>
+  <si>
+    <t>______________________________</t>
   </si>
 </sst>
 </file>
@@ -224,14 +224,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,8 +738,8 @@
   </sheetPr>
   <dimension ref="A2:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A32" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A53" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +758,7 @@
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -769,7 +769,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -780,7 +780,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -791,7 +791,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -802,7 +802,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -813,7 +813,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -824,7 +824,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -832,8 +832,8 @@
       <c r="J8" s="7"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="16" t="s">
-        <v>26</v>
+      <c r="E10" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
@@ -848,8 +848,8 @@
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
@@ -864,8 +864,8 @@
       <c r="I13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
@@ -904,9 +904,9 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="1" t="s">
         <v>3</v>
       </c>
@@ -919,12 +919,12 @@
       <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -950,21 +950,21 @@
         <v>5</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="D19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
       <c r="H19" s="11"/>
       <c r="I19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" s="13"/>
+      <c r="K19" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -986,21 +986,21 @@
         <v>1</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="D21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="13"/>
+      <c r="K21" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -1069,12 +1069,12 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
+      <c r="I26" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
@@ -1126,11 +1126,11 @@
       <c r="A30" s="1"/>
       <c r="B30" s="12"/>
       <c r="C30" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1165,10 +1165,12 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="I32" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
@@ -1205,7 +1207,7 @@
     <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1220,14 +1222,14 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -1238,7 +1240,7 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -1249,7 +1251,7 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
@@ -1260,7 +1262,7 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
@@ -1271,7 +1273,7 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -1282,7 +1284,7 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -1293,7 +1295,7 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
@@ -1301,8 +1303,8 @@
       <c r="J45" s="7"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E47" s="16" t="s">
-        <v>26</v>
+      <c r="E47" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
@@ -1317,8 +1319,8 @@
       <c r="I49" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
@@ -1333,8 +1335,8 @@
       <c r="I50" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
@@ -1373,9 +1375,9 @@
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
       <c r="I53" s="1" t="s">
         <v>3</v>
       </c>
@@ -1388,12 +1390,12 @@
       <c r="B54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -1419,21 +1421,21 @@
         <v>5</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
+      <c r="D56" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
       <c r="H56" s="11"/>
       <c r="I56" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J56" s="1"/>
-      <c r="K56" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="L56" s="13"/>
+      <c r="K56" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" s="15"/>
     </row>
     <row r="57" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
@@ -1455,21 +1457,21 @@
         <v>1</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
+      <c r="D58" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J58" s="1"/>
-      <c r="K58" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L58" s="13"/>
+      <c r="K58" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L58" s="15"/>
     </row>
     <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
@@ -1538,12 +1540,12 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
+      <c r="I63" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
     </row>
     <row r="64" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
@@ -1595,11 +1597,11 @@
       <c r="A67" s="1"/>
       <c r="B67" s="12"/>
       <c r="C67" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -1634,10 +1636,12 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
+      <c r="I69" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
     </row>
     <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
@@ -1674,7 +1678,7 @@
     <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1688,25 +1692,27 @@
       <c r="L72" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="I69:L69"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="I26:L26"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="J49:K49"/>
     <mergeCell ref="D19:G19"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="K58:L58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="68" fitToWidth="0" orientation="portrait" r:id="rId1"/>
